--- a/example/测试用例模板.xlsx
+++ b/example/测试用例模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\webautotest\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA67A62-1EC0-43F2-A61F-DCA92303ECE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C2990D-364C-4985-97C4-34D02F1BC3A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="3510" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="2685" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,9 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -822,10 +824,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="3">
@@ -849,6 +851,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="189" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="D11" s="3">
         <v>2</v>
       </c>
@@ -863,6 +867,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="D12" s="3">
         <v>3</v>
       </c>
@@ -880,7 +886,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="A1:A2"/>

--- a/example/测试用例模板.xlsx
+++ b/example/测试用例模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\webautotest\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C2990D-364C-4985-97C4-34D02F1BC3A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A560A7EC-6299-4049-A7B8-E06725CB0D2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2685" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11730" yWindow="4410" windowWidth="24480" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,12 +200,14 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -272,29 +274,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -577,7 +579,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -589,7 +591,7 @@
     <col min="5" max="5" width="8.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="24.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="6" customWidth="1"/>
     <col min="9" max="10" width="10.5" style="3" customWidth="1"/>
     <col min="11" max="11" width="17" style="3" customWidth="1"/>
     <col min="12" max="12" width="19.125" style="3" customWidth="1"/>
@@ -599,37 +601,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
       <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
@@ -651,7 +653,7 @@
       <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -663,20 +665,20 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -690,9 +692,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="3">
         <v>2</v>
       </c>
@@ -705,14 +707,14 @@
       <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="3">
         <v>3</v>
       </c>
@@ -722,7 +724,7 @@
       <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -739,9 +741,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="3">
         <v>4</v>
       </c>
@@ -753,9 +755,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="3">
         <v>5</v>
       </c>
@@ -768,16 +770,16 @@
       <c r="G7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="3">
@@ -786,15 +788,15 @@
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="3">
         <v>2</v>
       </c>
@@ -807,7 +809,7 @@
       <c r="G9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -824,10 +826,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="3">
@@ -836,10 +838,10 @@
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="3" t="s">
         <v>15</v>
       </c>
@@ -851,8 +853,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="189" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="D11" s="3">
         <v>2</v>
       </c>
@@ -862,13 +864,13 @@
       <c r="F11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="D12" s="3">
         <v>3</v>
       </c>
@@ -881,7 +883,7 @@
       <c r="G12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -903,7 +905,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>"存在,等于,包含"</formula1>
+      <formula1>"存在,等于,包含,大于,小于,是空,非空"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{62E9D221-2689-4300-B457-2043D136C5E5}">
       <formula1>"打开网页,点击,输入,人工,下拉选择"</formula1>

--- a/example/测试用例模板.xlsx
+++ b/example/测试用例模板.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\webautotest\example\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A560A7EC-6299-4049-A7B8-E06725CB0D2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11730" yWindow="4410" windowWidth="24480" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>用例名称</t>
   </si>
@@ -52,6 +46,9 @@
     <t>数值</t>
   </si>
   <si>
+    <t>selector</t>
+  </si>
+  <si>
     <t>判断</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
     <t>测试用例1</t>
   </si>
   <si>
+    <t>测试模块1</t>
+  </si>
+  <si>
     <t>打开网页</t>
   </si>
   <si>
@@ -73,24 +73,54 @@
     <t>logo</t>
   </si>
   <si>
+    <t>#lg</t>
+  </si>
+  <si>
+    <t>输入</t>
+  </si>
+  <si>
+    <t>搜索框</t>
+  </si>
+  <si>
+    <t>火影, 柯南</t>
+  </si>
+  <si>
+    <t>#kw</t>
+  </si>
+  <si>
     <t>点击</t>
   </si>
   <si>
-    <t>搜索框</t>
-  </si>
-  <si>
-    <t>输入</t>
+    <t>搜索按钮</t>
+  </si>
+  <si>
+    <t>#su</t>
   </si>
   <si>
     <t>包含</t>
   </si>
   <si>
+    <t>文本框1</t>
+  </si>
+  <si>
     <t>柯南</t>
   </si>
   <si>
     <t>人工</t>
   </si>
   <si>
+    <t>下拉选择</t>
+  </si>
+  <si>
+    <t>下拉框</t>
+  </si>
+  <si>
+    <t>选项1</t>
+  </si>
+  <si>
+    <t>#u &gt; a.pf</t>
+  </si>
+  <si>
     <t>测试用例2</t>
   </si>
   <si>
@@ -100,94 +130,38 @@
     <t>等于</t>
   </si>
   <si>
-    <t>下拉选择</t>
-  </si>
-  <si>
-    <t>火影, 柯南</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#su</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#kw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#lg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#u &gt; a.pf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本框1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>文本框2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>测试用例3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试模块1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>测试模块2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉按钮</t>
   </si>
   <si>
     <t>#app &gt; div.main-cnt &gt; div &gt; div.el-scrollbar__wrap &gt; div &gt; div &gt; div.page-component__content &gt; section &gt; div:nth-child(5) &gt; div.source &gt; div &gt; div &gt; div.el-input.el-input--suffix &gt; span &gt; span &gt; i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要被选择的值</t>
   </si>
   <si>
     <t>body &gt; div.el-select-dropdown.el-popper &gt; div.el-scrollbar &gt; div.el-select-dropdown__wrap.el-scrollbar__wrap &gt; ul</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要被选择的值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>selector</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,27 +174,341 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -252,12 +540,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -265,52 +792,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -568,354 +1138,334 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K$1:K$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="6" customWidth="1"/>
-    <col min="9" max="10" width="10.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17" style="3" customWidth="1"/>
-    <col min="12" max="12" width="19.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="25.5" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="3" customWidth="1"/>
+    <col min="9" max="10" width="10.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="4"/>
       <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="1"/>
+      <c r="L2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12">
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7">
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8">
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="4:12">
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="3">
+      <c r="K9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="G10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="189" spans="4:8">
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" ht="121.5" spans="4:8">
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="189" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="D12" s="3">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C3:C7"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+      <formula1>"打开网页,点击,输入,人工,下拉选择,上传"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
       <formula1>"存在,等于,包含,大于,小于,是空,非空"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{62E9D221-2689-4300-B457-2043D136C5E5}">
-      <formula1>"打开网页,点击,输入,人工,下拉选择"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G10" r:id="rId3" xr:uid="{A01D64BE-155E-4E8D-8A32-A1DD5934440F}"/>
+    <hyperlink ref="G8" r:id="rId1" display="http://baidu.com"/>
+    <hyperlink ref="G3" r:id="rId1" display="http://baidu.com"/>
+    <hyperlink ref="G10" r:id="rId1" display="http://baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>